--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam5-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam5-Itgal.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.064164333333333</v>
+        <v>0.1421496666666667</v>
       </c>
       <c r="H2">
-        <v>6.192493</v>
+        <v>0.426449</v>
       </c>
       <c r="I2">
-        <v>0.6667582237734649</v>
+        <v>0.1211014306728536</v>
       </c>
       <c r="J2">
-        <v>0.6667582237734649</v>
+        <v>0.1211014306728536</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>21.087087</v>
+        <v>0.01569233333333333</v>
       </c>
       <c r="N2">
-        <v>63.261261</v>
+        <v>0.047077</v>
       </c>
       <c r="O2">
-        <v>0.9808818221599021</v>
+        <v>0.03693539111407157</v>
       </c>
       <c r="P2">
-        <v>0.9808818221599021</v>
+        <v>0.03693539111407157</v>
       </c>
       <c r="Q2">
-        <v>43.527212879297</v>
+        <v>0.002230659952555556</v>
       </c>
       <c r="R2">
-        <v>391.744915913673</v>
+        <v>0.020075939573</v>
       </c>
       <c r="S2">
-        <v>0.654011021475016</v>
+        <v>0.00447292870637547</v>
       </c>
       <c r="T2">
-        <v>0.654011021475016</v>
+        <v>0.00447292870637547</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.064164333333333</v>
+        <v>0.1421496666666667</v>
       </c>
       <c r="H3">
-        <v>6.192493</v>
+        <v>0.426449</v>
       </c>
       <c r="I3">
-        <v>0.6667582237734649</v>
+        <v>0.1211014306728536</v>
       </c>
       <c r="J3">
-        <v>0.6667582237734649</v>
+        <v>0.1211014306728536</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>0.3230143333333333</v>
       </c>
       <c r="N3">
-        <v>0.969043</v>
+        <v>0.9690430000000001</v>
       </c>
       <c r="O3">
-        <v>0.01502525635066456</v>
+        <v>0.7602859615386125</v>
       </c>
       <c r="P3">
-        <v>0.01502525635066456</v>
+        <v>0.7602859615386125</v>
       </c>
       <c r="Q3">
-        <v>0.6667546660221111</v>
+        <v>0.0459163798118889</v>
       </c>
       <c r="R3">
-        <v>6.000791994199</v>
+        <v>0.4132474183070001</v>
       </c>
       <c r="S3">
-        <v>0.01001821323611007</v>
+        <v>0.09207171766281209</v>
       </c>
       <c r="T3">
-        <v>0.01001821323611007</v>
+        <v>0.09207171766281209</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.064164333333333</v>
+        <v>0.1421496666666667</v>
       </c>
       <c r="H4">
-        <v>6.192493</v>
+        <v>0.426449</v>
       </c>
       <c r="I4">
-        <v>0.6667582237734649</v>
+        <v>0.1211014306728536</v>
       </c>
       <c r="J4">
-        <v>0.6667582237734649</v>
+        <v>0.1211014306728536</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.08799000000000001</v>
+        <v>0.08615233333333333</v>
       </c>
       <c r="N4">
-        <v>0.26397</v>
+        <v>0.258457</v>
       </c>
       <c r="O4">
-        <v>0.00409292148943331</v>
+        <v>0.202778647347316</v>
       </c>
       <c r="P4">
-        <v>0.00409292148943331</v>
+        <v>0.202778647347316</v>
       </c>
       <c r="Q4">
-        <v>0.18162581969</v>
+        <v>0.01224652546588889</v>
       </c>
       <c r="R4">
-        <v>1.63463237721</v>
+        <v>0.110218729193</v>
       </c>
       <c r="S4">
-        <v>0.002728989062338798</v>
+        <v>0.02455678430366601</v>
       </c>
       <c r="T4">
-        <v>0.002728989062338798</v>
+        <v>0.02455678430366601</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.094971</v>
       </c>
       <c r="I5">
-        <v>0.333241776226535</v>
+        <v>0.8788985693271465</v>
       </c>
       <c r="J5">
-        <v>0.333241776226535</v>
+        <v>0.8788985693271465</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>21.087087</v>
+        <v>0.01569233333333333</v>
       </c>
       <c r="N5">
-        <v>63.261261</v>
+        <v>0.047077</v>
       </c>
       <c r="O5">
-        <v>0.9808818221599021</v>
+        <v>0.03693539111407157</v>
       </c>
       <c r="P5">
-        <v>0.9808818221599021</v>
+        <v>0.03693539111407157</v>
       </c>
       <c r="Q5">
-        <v>21.754640913159</v>
+        <v>0.01618910552966667</v>
       </c>
       <c r="R5">
-        <v>195.791768218431</v>
+        <v>0.145701949767</v>
       </c>
       <c r="S5">
-        <v>0.326870800684886</v>
+        <v>0.0324624624076961</v>
       </c>
       <c r="T5">
-        <v>0.326870800684886</v>
+        <v>0.0324624624076961</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.094971</v>
       </c>
       <c r="I6">
-        <v>0.333241776226535</v>
+        <v>0.8788985693271465</v>
       </c>
       <c r="J6">
-        <v>0.333241776226535</v>
+        <v>0.8788985693271465</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>0.3230143333333333</v>
       </c>
       <c r="N6">
-        <v>0.969043</v>
+        <v>0.9690430000000001</v>
       </c>
       <c r="O6">
-        <v>0.01502525635066456</v>
+        <v>0.7602859615386125</v>
       </c>
       <c r="P6">
-        <v>0.01502525635066456</v>
+        <v>0.7602859615386125</v>
       </c>
       <c r="Q6">
-        <v>0.3332399980836666</v>
+        <v>0.3332399980836667</v>
       </c>
       <c r="R6">
         <v>2.999159982753</v>
       </c>
       <c r="S6">
-        <v>0.005007043114554482</v>
+        <v>0.6682142438758004</v>
       </c>
       <c r="T6">
-        <v>0.005007043114554481</v>
+        <v>0.6682142438758004</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.094971</v>
       </c>
       <c r="I7">
-        <v>0.333241776226535</v>
+        <v>0.8788985693271465</v>
       </c>
       <c r="J7">
-        <v>0.333241776226535</v>
+        <v>0.8788985693271465</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -862,28 +862,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.08799000000000001</v>
+        <v>0.08615233333333333</v>
       </c>
       <c r="N7">
-        <v>0.26397</v>
+        <v>0.258457</v>
       </c>
       <c r="O7">
-        <v>0.00409292148943331</v>
+        <v>0.202778647347316</v>
       </c>
       <c r="P7">
-        <v>0.00409292148943331</v>
+        <v>0.202778647347316</v>
       </c>
       <c r="Q7">
-        <v>0.09077549943</v>
+        <v>0.08887965774966666</v>
       </c>
       <c r="R7">
-        <v>0.81697949487</v>
+        <v>0.799916919747</v>
       </c>
       <c r="S7">
-        <v>0.001363932427094511</v>
+        <v>0.17822186304365</v>
       </c>
       <c r="T7">
-        <v>0.001363932427094511</v>
+        <v>0.17822186304365</v>
       </c>
     </row>
   </sheetData>
